--- a/記帳資料庫規劃.xlsx
+++ b/記帳資料庫規劃.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/iOS/MoneyManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/si1302/Desktop/iOS/MoneyManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1200F-7C1D-D548-A719-6B082D127D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E1FCB-ABBC-7D4F-B271-B56B95F5F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" activeTab="2" xr2:uid="{62425CE6-F341-B74A-BF20-DB52E29A4B6F}"/>
+    <workbookView xWindow="23360" yWindow="500" windowWidth="15040" windowHeight="19420" activeTab="1" xr2:uid="{62425CE6-F341-B74A-BF20-DB52E29A4B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
-    <sheet name="AccountType" sheetId="3" r:id="rId3"/>
+    <sheet name="Account" sheetId="3" r:id="rId3"/>
+    <sheet name="ExpensesGroup" sheetId="6" r:id="rId4"/>
+    <sheet name="ExpensesType" sheetId="4" r:id="rId5"/>
+    <sheet name="ＩncomeGroup" sheetId="7" r:id="rId6"/>
+    <sheet name="ＩncomeType" sheetId="5" r:id="rId7"/>
+    <sheet name="TransferGroup" sheetId="10" r:id="rId8"/>
+    <sheet name="TransferType" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0: 支出, 1: 收入, 2: 轉帳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0: 早餐, 1: 午餐, 2: 晚餐, 3: 雜支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detailType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,11 +145,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帳戶金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用戶Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型名稱，例: 早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出類型群組名稱，例: 餐飲食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始帳戶金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入類型群組名稱，例: 一般收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型名稱，例: 公司薪資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據 type 參照 ExpensesType 或 IncomeType 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳類型群組名稱，例: 轉帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳類型群組
+參照 TransferGroup 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型名稱，例: 一般轉帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶類型名稱，參照 AccountType 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型名稱，參照 ExpensesType 或 IncomeType 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>includTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否計入總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomeGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensesGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶剩餘金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAccountType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toAccountName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 type = 2: 目的地帳戶，參照 AccountType 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 type = 2: 目的地帳戶名稱，參照 AccountType 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 支出, 1: 收入, 2: 轉帳, 3: 列表新增鈕(最後一列)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出類型群組
+參照 ExpensesGroup 資料表或預設的Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入類型群組
+參照 IncomeGroup 資料表或預設的Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billingType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +736,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC918FA-8FDE-BB44-BE2F-A26D93D9E034}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="72.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="41" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="41" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="41" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="41" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491D7E79-9349-0247-9917-4F9B06288BB1}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
@@ -649,10 +954,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="41" customHeight="1">
@@ -663,15 +968,15 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -679,47 +984,46 @@
     </row>
     <row r="6" spans="1:3" ht="41" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="41" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="41" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="41" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -727,12 +1031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491D7E79-9349-0247-9917-4F9B06288BB1}">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480FB15F-7987-2C41-9E9F-560751376B16}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
@@ -765,49 +1069,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41" customHeight="1">
+    <row r="3" spans="1:3" ht="62" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="41" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="41" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="41" customHeight="1">
       <c r="A7" s="4"/>
@@ -828,6 +1120,504 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B4995E-8AE0-8346-9F4F-847DB14C3058}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="41" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="62" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="41" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDD3013-636E-E149-ABF6-92D9296B3296}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="62" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="41" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009CBE8B-5E16-CB43-852A-6E5B85CF5CF5}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="55" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B91DC-7939-C645-AED8-41F39EBEB4CE}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="62" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="41" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="41" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A6188C-F31A-4047-8633-5D4CA13CAEE8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/記帳資料庫規劃.xlsx
+++ b/記帳資料庫規劃.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/si1302/Desktop/iOS/MoneyManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E1FCB-ABBC-7D4F-B271-B56B95F5F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B506-EE80-3542-BB6E-491E4C8CF3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="500" windowWidth="15040" windowHeight="19420" activeTab="1" xr2:uid="{62425CE6-F341-B74A-BF20-DB52E29A4B6F}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根據 type 參照 ExpensesType 或 IncomeType 資料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轉帳類型群組名稱，例: 轉帳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detailName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帳戶類型名稱，參照 AccountType 資料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +269,14 @@
   </si>
   <si>
     <t>billingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據 type 參照 ExpensesGroup 或 IncomeGroup 資料表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +739,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
@@ -785,13 +785,13 @@
     </row>
     <row r="4" spans="1:3" ht="41" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
@@ -807,57 +807,57 @@
     </row>
     <row r="6" spans="1:3" ht="41" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="41" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="41" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="41" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41" customHeight="1">
@@ -984,18 +984,18 @@
     </row>
     <row r="6" spans="1:3" ht="41" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="41" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="41" customHeight="1">
@@ -1183,13 +1183,13 @@
     </row>
     <row r="4" spans="1:3" ht="62" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
@@ -1381,13 +1381,13 @@
     </row>
     <row r="4" spans="1:3" ht="55" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
@@ -1484,7 +1484,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
@@ -1579,13 +1579,13 @@
     </row>
     <row r="4" spans="1:3" ht="48" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41" customHeight="1">
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="41" customHeight="1">

--- a/記帳資料庫規劃.xlsx
+++ b/記帳資料庫規劃.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/si1302/Desktop/iOS/MoneyManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B506-EE80-3542-BB6E-491E4C8CF3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9026FCD-DB6A-F14E-B0AB-6E41F61AC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="500" windowWidth="15040" windowHeight="19420" activeTab="1" xr2:uid="{62425CE6-F341-B74A-BF20-DB52E29A4B6F}"/>
+    <workbookView xWindow="23360" yWindow="500" windowWidth="15040" windowHeight="19420" activeTab="2" xr2:uid="{62425CE6-F341-B74A-BF20-DB52E29A4B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
-    <sheet name="Account" sheetId="3" r:id="rId3"/>
-    <sheet name="ExpensesGroup" sheetId="6" r:id="rId4"/>
-    <sheet name="ExpensesType" sheetId="4" r:id="rId5"/>
-    <sheet name="ＩncomeGroup" sheetId="7" r:id="rId6"/>
-    <sheet name="ＩncomeType" sheetId="5" r:id="rId7"/>
-    <sheet name="TransferGroup" sheetId="10" r:id="rId8"/>
-    <sheet name="TransferType" sheetId="12" r:id="rId9"/>
+    <sheet name="Memo" sheetId="13" r:id="rId3"/>
+    <sheet name="Account" sheetId="3" r:id="rId4"/>
+    <sheet name="ExpensesGroup" sheetId="6" r:id="rId5"/>
+    <sheet name="ExpensesType" sheetId="4" r:id="rId6"/>
+    <sheet name="ＩncomeGroup" sheetId="7" r:id="rId7"/>
+    <sheet name="ＩncomeType" sheetId="5" r:id="rId8"/>
+    <sheet name="TransferGroup" sheetId="10" r:id="rId9"/>
+    <sheet name="TransferType" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +278,14 @@
   </si>
   <si>
     <t>根據 type 參照 ExpensesGroup 或 IncomeGroup 資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,12 +743,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A6188C-F31A-4047-8633-5D4CA13CAEE8}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3"/>
+    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC918FA-8FDE-BB44-BE2F-A26D93D9E034}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
@@ -799,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -821,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>50</v>
@@ -912,6 +1018,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B286459-B074-FB42-B447-64B5A31DDD55}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="16" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="41" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="41" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491D7E79-9349-0247-9917-4F9B06288BB1}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1031,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480FB15F-7987-2C41-9E9F-560751376B16}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1132,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B4995E-8AE0-8346-9F4F-847DB14C3058}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1229,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDD3013-636E-E149-ABF6-92D9296B3296}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1330,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009CBE8B-5E16-CB43-852A-6E5B85CF5CF5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1427,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30B91DC-7939-C645-AED8-41F39EBEB4CE}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1526,101 +1752,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A6188C-F31A-4047-8633-5D4CA13CAEE8}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="41" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3"/>
-    <col min="3" max="3" width="57.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="16" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="41" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="41" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="50" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="41" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="41" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="41" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="41" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>